--- a/assets/generated/SingleItem.xlsx
+++ b/assets/generated/SingleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="23955" windowHeight="4695" tabRatio="366" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="20730" windowHeight="4695" tabRatio="366"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="204">
   <si>
     <t>Type Decl.</t>
   </si>
@@ -145,15 +145,6 @@
   </si>
   <si>
     <t>Trad. Count</t>
-  </si>
-  <si>
-    <t>12*** Detajet e vleres (kujdes e inseruar zero, ne XML eshte 0.0)</t>
-  </si>
-  <si>
-    <t>General_information-&gt;Value_details</t>
-  </si>
-  <si>
-    <t>Value Det.</t>
   </si>
   <si>
     <t>13*** P.P.B (Bosh)</t>
@@ -503,9 +494,6 @@
   </si>
   <si>
     <t>22*** Mon &amp; shuma totale ne fature</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Rate_of_adjustement</t>
@@ -564,9 +552,6 @@
     TIRANE</t>
   </si>
   <si>
-    <t>L31311005F</t>
-  </si>
-  <si>
     <t>GR</t>
   </si>
   <si>
@@ -640,9 +625,6 @@
     <t>Attached_doc_item</t>
   </si>
   <si>
-    <t>862 863 380</t>
-  </si>
-  <si>
     <t>Item-&gt;Valuation_item-&gt;Gs_external_freight</t>
   </si>
   <si>
@@ -656,6 +638,15 @@
   </si>
   <si>
     <t>Item-&gt;Valuation_item-&gt;Gs_deduction</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>L31616001H</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,41 +1171,40 @@
     <col min="15" max="15" width="23.140625" customWidth="1"/>
     <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" customWidth="1"/>
-    <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.42578125" customWidth="1"/>
-    <col min="38" max="38" width="17" style="1" customWidth="1"/>
-    <col min="39" max="39" width="26.140625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" customWidth="1"/>
-    <col min="41" max="41" width="18" customWidth="1"/>
-    <col min="42" max="42" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" customWidth="1"/>
+    <col min="37" max="37" width="17" style="1" customWidth="1"/>
+    <col min="38" max="38" width="26.140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="15.42578125" customWidth="1"/>
+    <col min="40" max="40" width="18" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -1256,48 +1246,48 @@
       <c r="Q1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="19"/>
+      <c r="S1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="19"/>
+      <c r="U1" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="V1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>55</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="2" t="s">
+      <c r="Y1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AC1" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="14"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="AJ1" s="3" t="s">
         <v>83</v>
       </c>
@@ -1305,46 +1295,43 @@
         <v>86</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AM1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AN1" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="AO1" s="3" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AP1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR1" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="AS1" s="3" t="s">
         <v>141</v>
       </c>
       <c r="AT1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AW1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AV1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>148</v>
-      </c>
     </row>
-    <row r="2" spans="1:50" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1363,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>29</v>
@@ -1393,14 +1380,14 @@
       <c r="Q2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>44</v>
+      <c r="S2" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>53</v>
@@ -1409,34 +1396,34 @@
         <v>56</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="AE2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>78</v>
@@ -1447,20 +1434,17 @@
       <c r="AJ2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>149</v>
+      <c r="AM2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1509,11 +1493,11 @@
       <c r="Q3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>45</v>
+      <c r="S3" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>51</v>
@@ -1525,195 +1509,204 @@
         <v>57</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AA3" s="4" t="s">
         <v>66</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AG3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AK3" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="AM3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO3" s="5"/>
       <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AS3" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="AR3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS3" s="5"/>
       <c r="AT3" s="5"/>
       <c r="AU3" s="5"/>
       <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="4" t="s">
-        <v>150</v>
+      <c r="AW3" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:50" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B4" s="12">
         <v>4</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G4" s="12">
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC4" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AR4" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="W4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI4" s="6">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AS4" s="6" t="s">
-        <v>184</v>
-      </c>
+      <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
       <c r="AU4" s="7"/>
       <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="6" t="s">
-        <v>185</v>
+      <c r="AW4" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1724,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,24 +1747,24 @@
   <sheetData>
     <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="24"/>
       <c r="F1" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -1787,264 +1780,264 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y1" s="23" t="s">
         <v>116</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="Z1" s="24"/>
       <c r="AA1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="AF1" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AG1" s="25"/>
       <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="Z2" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="Y3" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="M4" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -2057,27 +2050,25 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>201</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AG4" s="6"/>
       <c r="AH4" s="17"/>
     </row>
   </sheetData>

--- a/assets/generated/SingleItem.xlsx
+++ b/assets/generated/SingleItem.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20730" windowHeight="4695" tabRatio="366"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="24060" windowHeight="8625" tabRatio="366" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="V1:AE21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="206">
   <si>
     <t>Type Decl.</t>
   </si>
@@ -647,6 +648,12 @@
   </si>
   <si>
     <t>L31616001H</t>
+  </si>
+  <si>
+    <t>Suppplementary_unit_code</t>
+  </si>
+  <si>
+    <t>Suppplementary_unit_quantity</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -1715,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2:AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1752,7 @@
     <col min="34" max="34" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>101</v>
       </c>
@@ -1807,7 +1814,7 @@
       <c r="AG1" s="25"/>
       <c r="AH1" s="19"/>
     </row>
-    <row r="2" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -1902,8 +1909,14 @@
       <c r="AH2" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="AI2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>96</v>
       </c>
@@ -1998,8 +2011,14 @@
       <c r="AH3" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="AI3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>157</v>
       </c>

--- a/assets/generated/SingleItem.xlsx
+++ b/assets/generated/SingleItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="24060" windowHeight="8625" tabRatio="366" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="24060" windowHeight="8625" tabRatio="366"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="V1:AE21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="204">
   <si>
     <t>Type Decl.</t>
   </si>
@@ -127,9 +126,6 @@
     <t>Consign Code</t>
   </si>
   <si>
-    <t>9*** Financiare (Bosh, krijo obj Financial )</t>
-  </si>
-  <si>
     <t>10*** Vendi i fundit</t>
   </si>
   <si>
@@ -146,9 +142,6 @@
   </si>
   <si>
     <t>Trad. Count</t>
-  </si>
-  <si>
-    <t>13*** P.P.B (Bosh)</t>
   </si>
   <si>
     <t>14*** Deklaruesi/Perfaqesuesit</t>
@@ -1153,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW8"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,43 +1168,41 @@
     <col min="12" max="12" width="25" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" customWidth="1"/>
-    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" customWidth="1"/>
-    <col min="26" max="26" width="17.85546875" customWidth="1"/>
-    <col min="27" max="27" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.7109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="23.42578125" customWidth="1"/>
-    <col min="37" max="37" width="17" style="1" customWidth="1"/>
-    <col min="38" max="38" width="26.140625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="15.42578125" customWidth="1"/>
-    <col min="40" max="40" width="18" customWidth="1"/>
-    <col min="41" max="41" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="23.42578125" customWidth="1"/>
+    <col min="35" max="35" width="17" style="1" customWidth="1"/>
+    <col min="36" max="36" width="26.140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="15.42578125" customWidth="1"/>
+    <col min="38" max="38" width="18" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -1244,71 +1235,71 @@
         <v>31</v>
       </c>
       <c r="N1" s="24"/>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="19"/>
-      <c r="U1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="19"/>
+      <c r="S1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="19"/>
       <c r="AB1" s="18" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="AC1" s="19"/>
       <c r="AD1" s="18" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AE1" s="19"/>
-      <c r="AF1" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="AI1" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>86</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="AO1" s="3" t="s">
         <v>135</v>
@@ -1317,10 +1308,10 @@
         <v>136</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AS1" s="3" t="s">
         <v>141</v>
@@ -1328,17 +1319,11 @@
       <c r="AT1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AV1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>145</v>
-      </c>
     </row>
-    <row r="2" spans="1:49" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +1355,7 @@
         <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>29</v>
@@ -1381,44 +1366,50 @@
       <c r="N2" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="P2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>72</v>
@@ -1427,31 +1418,25 @@
         <v>73</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>146</v>
+        <v>82</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" s="4" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1494,226 +1479,226 @@
       <c r="N3" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="O3" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="P3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG3" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="AG3" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="AH3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AR3" s="4" t="s">
-        <v>140</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AP3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
       <c r="AS3" s="5"/>
       <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="4" t="s">
-        <v>147</v>
+      <c r="AU3" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:49" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" s="12">
         <v>4</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G4" s="12">
         <v>1</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="T4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="T4" s="6" t="s">
+      <c r="X4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD4" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="U4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y4" s="6" t="s">
+      <c r="AE4" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="Z4" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF4" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH4" s="6">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="6" t="s">
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AP4" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AR4" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
       <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="6" t="s">
-        <v>180</v>
+      <c r="AU4" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1724,7 +1709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="AI2" sqref="AI2:AJ3"/>
     </sheetView>
   </sheetViews>
@@ -1754,24 +1739,24 @@
   <sheetData>
     <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="24"/>
       <c r="F1" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -1787,276 +1772,276 @@
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
       <c r="X1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Y1" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Z1" s="24"/>
       <c r="AA1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AF1" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG1" s="25"/>
       <c r="AH1" s="19"/>
     </row>
     <row r="2" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K2" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>191</v>
-      </c>
       <c r="M2" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="N2" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="T2" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>200</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AI2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AJ2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AI3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AJ3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="K4" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -2069,23 +2054,23 @@
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
       <c r="X4" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AG4" s="6"/>
       <c r="AH4" s="17"/>
